--- a/data_excel/978.xlsx
+++ b/data_excel/978.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>芊樺</t>
   </si>
@@ -103,14 +103,6 @@
   </si>
   <si>
     <t>沒有</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>=</t>
@@ -118,6 +110,10 @@
   </si>
   <si>
     <t>特點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +488,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -525,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -574,7 +570,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -662,7 +658,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -673,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/978.xlsx
+++ b/data_excel/978.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>芊樺</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>吃</t>
-  </si>
-  <si>
-    <t>v</t>
   </si>
   <si>
     <t>人</t>
@@ -114,6 +111,18 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +151,13 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,9 +196,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -488,7 +505,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -517,45 +534,45 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -566,73 +583,73 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -641,35 +658,35 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
         <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
